--- a/Documentação/Planilhas/Layouts/Layout_CAR.xlsx
+++ b/Documentação/Planilhas/Layouts/Layout_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="stg_car_pedido_venda" sheetId="79" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="stg_car_remessa_cobr_eletronica" sheetId="85" r:id="rId3"/>
     <sheet name="stg_car_retorno_cobr_eletronica" sheetId="86" r:id="rId4"/>
     <sheet name="stg_car_titulo" sheetId="87" r:id="rId5"/>
+    <sheet name="stg_car_titulo_mvmto" sheetId="88" r:id="rId6"/>
+    <sheet name="Plan2" sheetId="89" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="259">
   <si>
     <t>Campo</t>
   </si>
@@ -614,6 +616,191 @@
   </si>
   <si>
     <t>Identifica a Conta Contabil</t>
+  </si>
+  <si>
+    <t>ttfacr200</t>
+  </si>
+  <si>
+    <t>t$ttyp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t$ttyp || t$ninv</t>
+  </si>
+  <si>
+    <t>tcisli205</t>
+  </si>
+  <si>
+    <t>WHEN t$styp = ' ' THEN 2 ELSE 3 END</t>
+  </si>
+  <si>
+    <t>t$doct$l</t>
+  </si>
+  <si>
+    <t>t$itbp</t>
+  </si>
+  <si>
+    <t>t$seri$l</t>
+  </si>
+  <si>
+    <t>t$docd</t>
+  </si>
+  <si>
+    <t>t$liqd</t>
+  </si>
+  <si>
+    <t>max(t$docd)</t>
+  </si>
+  <si>
+    <t>t$amnt</t>
+  </si>
+  <si>
+    <t>t$agcd$l</t>
+  </si>
+  <si>
+    <t>ttfcmg001</t>
+  </si>
+  <si>
+    <t>t$bano</t>
+  </si>
+  <si>
+    <t>t$dim1</t>
+  </si>
+  <si>
+    <t>ttfcmg401</t>
+  </si>
+  <si>
+    <t>t$btno</t>
+  </si>
+  <si>
+    <t>ttfcmg409</t>
+  </si>
+  <si>
+    <t>t$date</t>
+  </si>
+  <si>
+    <t>t$dued</t>
+  </si>
+  <si>
+    <t>t$bank</t>
+  </si>
+  <si>
+    <t>t$balc</t>
+  </si>
+  <si>
+    <t>t$dc1h$1 + t$dc2h$1 + t$dc3h$1</t>
+  </si>
+  <si>
+    <t>t$ninv</t>
+  </si>
+  <si>
+    <t>tttxt010</t>
+  </si>
+  <si>
+    <t>t$text</t>
+  </si>
+  <si>
+    <t>tfgld100</t>
+  </si>
+  <si>
+    <t>t$user</t>
+  </si>
+  <si>
+    <t>é a maior data entre: ttfacr200.t$rcd_utc  ; max(ttfacr201.t$rcd_utc) e ttfcmg001.t$rcd_utc</t>
+  </si>
+  <si>
+    <t>ttfacr200
+ttfacr201
+ttfcmg001</t>
+  </si>
+  <si>
+    <t>ttcemm030</t>
+  </si>
+  <si>
+    <t>t$eunt</t>
+  </si>
+  <si>
+    <t>t$leac</t>
+  </si>
+  <si>
+    <t>stg_dom_parceiro_cadastro</t>
+  </si>
+  <si>
+    <t>stg_nfv_cab</t>
+  </si>
+  <si>
+    <t>stg_dom_centro_custo</t>
+  </si>
+  <si>
+    <t>stg_dom_situacao_titulo</t>
+  </si>
+  <si>
+    <t>stg_car_remessa</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_car_titulo_mvmto]</t>
+  </si>
+  <si>
+    <t>VW_CAR_Titulo_Mvmt.sql</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Processo de Carga LN\ssis_stage_car.dtsx\CAR - Titulo Mvmt</t>
+  </si>
+  <si>
+    <t>NR_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>SQ_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_PARCELA</t>
+  </si>
+  <si>
+    <t>CD_TIPO_NF</t>
+  </si>
+  <si>
+    <t>CD_TIPO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>IN_ENTRADA_SAIDA</t>
+  </si>
+  <si>
+    <t>DT_TRANSACAO</t>
+  </si>
+  <si>
+    <t>VL_TRANSACAO</t>
+  </si>
+  <si>
+    <t>CD_PREPARADO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_SITUACAO_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_TITULO_REFERENCIA</t>
+  </si>
+  <si>
+    <t>CD_MODULO_TITULO_REFERENCIA</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>DT_VENCTO_PRORROGADO</t>
+  </si>
+  <si>
+    <t>DT_VENCTO_ORIGINAL_PRORROGADO</t>
+  </si>
+  <si>
+    <t>DT_LIQUIDEZ_PREVISTA</t>
+  </si>
+  <si>
+    <t>CD_TIPO_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>Identifica a parcela através do seu número</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Nofa Fiscal através do seu código</t>
   </si>
 </sst>
 </file>
@@ -915,7 +1102,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -935,7 +1122,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -975,7 +1162,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -995,7 +1182,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1035,7 +1222,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1055,7 +1242,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1095,7 +1282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1115,7 +1302,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1155,7 +1342,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1175,7 +1362,67 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>265020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1846170" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1479,7 +1726,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1710,8 +1957,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2099,8 +2346,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2328,7 +2575,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2699,8 +2946,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2799,8 +3046,12 @@
       <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
     </row>
@@ -2811,8 +3062,12 @@
       <c r="B16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
     </row>
@@ -2824,9 +3079,15 @@
         <v>6</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
@@ -2835,10 +3096,18 @@
       <c r="B18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -2848,7 +3117,9 @@
         <v>177</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
@@ -2859,8 +3130,12 @@
       <c r="B20" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
     </row>
@@ -2871,10 +3146,18 @@
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+      <c r="C21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
@@ -2883,10 +3166,18 @@
       <c r="B22" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
+      <c r="C22" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
@@ -2895,10 +3186,18 @@
       <c r="B23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2907,8 +3206,12 @@
       <c r="B24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
     </row>
@@ -2919,8 +3222,12 @@
       <c r="B25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
     </row>
@@ -2931,8 +3238,12 @@
       <c r="B26" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
     </row>
@@ -2943,8 +3254,12 @@
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
     </row>
@@ -2955,10 +3270,18 @@
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="C28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="8" t="s">
@@ -2967,8 +3290,12 @@
       <c r="B29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
     </row>
@@ -2979,8 +3306,12 @@
       <c r="B30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
     </row>
@@ -2991,10 +3322,18 @@
       <c r="B31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
+      <c r="C31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
@@ -3003,10 +3342,18 @@
       <c r="B32" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
@@ -3015,8 +3362,12 @@
       <c r="B33" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14"/>
     </row>
@@ -3027,8 +3378,12 @@
       <c r="B34" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="E34" s="13"/>
       <c r="F34" s="14"/>
     </row>
@@ -3039,8 +3394,12 @@
       <c r="B35" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="F35" s="14"/>
     </row>
@@ -3051,8 +3410,12 @@
       <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
     </row>
@@ -3063,8 +3426,12 @@
       <c r="B37" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
     </row>
@@ -3075,8 +3442,12 @@
       <c r="B38" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
     </row>
@@ -3087,8 +3458,12 @@
       <c r="B39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="14"/>
     </row>
@@ -3099,20 +3474,28 @@
       <c r="B40" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="E40" s="13"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
+    <row r="41" spans="1:6" ht="40.5" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="E41" s="13"/>
       <c r="F41" s="14"/>
     </row>
@@ -3123,10 +3506,18 @@
       <c r="B42" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
+      <c r="C42" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
@@ -3135,8 +3526,12 @@
       <c r="B43" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
     </row>
@@ -3147,10 +3542,18 @@
       <c r="B44" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
+      <c r="C44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -3159,8 +3562,12 @@
       <c r="B45" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="15"/>
     </row>
@@ -3169,4 +3576,683 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1"/>
+    <row r="2" spans="1:6" ht="18" customHeight="1"/>
+    <row r="3" spans="1:6" ht="18" customHeight="1"/>
+    <row r="4" spans="1:6" ht="18" customHeight="1"/>
+    <row r="5" spans="1:6" ht="18" customHeight="1"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="35.1" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5">
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(C1,", ")</f>
+        <v xml:space="preserve">CD_CIA, </v>
+      </c>
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E28" si="0">CONCATENATE(C2,", ")</f>
+        <v xml:space="preserve">CD_FILIAL, </v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="25.5">
+      <c r="C3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="25.5">
+      <c r="C4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SQ_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="25.5">
+      <c r="C5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_PARCELA, </v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="38.25">
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="25.5">
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_MODULO, </v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="25.5">
+      <c r="C8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TIPO_NF, </v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="38.25">
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="38.25">
+      <c r="C10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="25.5">
+      <c r="C11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="25.5">
+      <c r="C12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_TRANSACAO, </v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="25.5">
+      <c r="C13" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">VL_TRANSACAO, </v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="38.25">
+      <c r="C14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="38.25">
+      <c r="C15" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="25.5">
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_BANCO, </v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="25.5">
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_AGENCIA, </v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="38.25">
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="38.25">
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="38.25">
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="38.25">
+      <c r="C21" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="51">
+      <c r="C22" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="25.5">
+      <c r="C23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NR_TITULO, </v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="38.25">
+      <c r="C24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="38.25">
+      <c r="C25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="51">
+      <c r="C26" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="38.25">
+      <c r="C27" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="38.25">
+      <c r="C28" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CD_TIPO_MOVIMENTO, </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Layouts/Layout_CAR.xlsx
+++ b/Documentação/Planilhas/Layouts/Layout_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="stg_car_pedido_venda" sheetId="79" r:id="rId1"/>
@@ -1081,31 +1081,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1113,22 +1107,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1141,31 +1126,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1173,22 +1152,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1201,31 +1171,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1233,22 +1197,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1261,31 +1216,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1293,22 +1242,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1321,31 +1261,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="5122" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1353,22 +1287,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1381,31 +1306,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="6146" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1413,22 +1332,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1726,7 +1636,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1957,9 +1867,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2346,9 +2254,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2575,9 +2481,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2946,9 +2850,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3585,9 +3487,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A42"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4018,7 +3918,7 @@
         <v xml:space="preserve">CD_FILIAL, </v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="25.5">
+    <row r="3" spans="3:5">
       <c r="C3" s="8" t="s">
         <v>240</v>
       </c>
@@ -4027,7 +3927,7 @@
         <v xml:space="preserve">NR_MOVIMENTO, </v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="25.5">
+    <row r="4" spans="3:5">
       <c r="C4" s="8" t="s">
         <v>241</v>
       </c>
@@ -4036,7 +3936,7 @@
         <v xml:space="preserve">SQ_MOVIMENTO, </v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="25.5">
+    <row r="5" spans="3:5">
       <c r="C5" s="8" t="s">
         <v>242</v>
       </c>
@@ -4045,7 +3945,7 @@
         <v xml:space="preserve">NR_PARCELA, </v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="38.25">
+    <row r="6" spans="3:5">
       <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
@@ -4054,7 +3954,7 @@
         <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="25.5">
+    <row r="7" spans="3:5">
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
@@ -4063,7 +3963,7 @@
         <v xml:space="preserve">CD_MODULO, </v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="25.5">
+    <row r="8" spans="3:5">
       <c r="C8" s="8" t="s">
         <v>243</v>
       </c>
@@ -4072,7 +3972,7 @@
         <v xml:space="preserve">CD_TIPO_NF, </v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="38.25">
+    <row r="9" spans="3:5">
       <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
@@ -4081,7 +3981,7 @@
         <v xml:space="preserve">CD_TRANSACAO_TITULO, </v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="38.25">
+    <row r="10" spans="3:5">
       <c r="C10" s="8" t="s">
         <v>244</v>
       </c>
@@ -4090,7 +3990,7 @@
         <v xml:space="preserve">CD_TIPO_DOCUMENTO, </v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="25.5">
+    <row r="11" spans="3:5">
       <c r="C11" s="8" t="s">
         <v>245</v>
       </c>
@@ -4099,7 +3999,7 @@
         <v xml:space="preserve">IN_ENTRADA_SAIDA, </v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="25.5">
+    <row r="12" spans="3:5">
       <c r="C12" s="8" t="s">
         <v>246</v>
       </c>
@@ -4108,7 +4008,7 @@
         <v xml:space="preserve">DT_TRANSACAO, </v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="25.5">
+    <row r="13" spans="3:5">
       <c r="C13" s="8" t="s">
         <v>247</v>
       </c>
@@ -4117,7 +4017,7 @@
         <v xml:space="preserve">VL_TRANSACAO, </v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="38.25">
+    <row r="14" spans="3:5">
       <c r="C14" s="8" t="s">
         <v>248</v>
       </c>
@@ -4126,7 +4026,7 @@
         <v xml:space="preserve">CD_PREPARADO_PAGAMENTO, </v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="38.25">
+    <row r="15" spans="3:5">
       <c r="C15" s="8" t="s">
         <v>249</v>
       </c>
@@ -4135,7 +4035,7 @@
         <v xml:space="preserve">DT_SITUACAO_MOVIMENTO, </v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="25.5">
+    <row r="16" spans="3:5">
       <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
@@ -4144,7 +4044,7 @@
         <v xml:space="preserve">CD_BANCO, </v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="25.5">
+    <row r="17" spans="3:5">
       <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +4053,7 @@
         <v xml:space="preserve">NR_AGENCIA, </v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="38.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
@@ -4162,7 +4062,7 @@
         <v xml:space="preserve">NR_CONTA_CORRENTE, </v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="38.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
@@ -4171,7 +4071,7 @@
         <v xml:space="preserve">DT_ULT_ATUALIZACAO, </v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="38.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
@@ -4180,7 +4080,7 @@
         <v xml:space="preserve">CD_UNIDADE_EMPRESARIAL, </v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="38.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
         <v>250</v>
       </c>
@@ -4189,7 +4089,7 @@
         <v xml:space="preserve">NR_TITULO_REFERENCIA, </v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="51">
+    <row r="22" spans="3:5" ht="25.5">
       <c r="C22" s="8" t="s">
         <v>251</v>
       </c>
@@ -4198,7 +4098,7 @@
         <v xml:space="preserve">CD_MODULO_TITULO_REFERENCIA, </v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="25.5">
+    <row r="23" spans="3:5">
       <c r="C23" s="8" t="s">
         <v>27</v>
       </c>
@@ -4207,7 +4107,7 @@
         <v xml:space="preserve">NR_TITULO, </v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="38.25">
+    <row r="24" spans="3:5">
       <c r="C24" s="8" t="s">
         <v>252</v>
       </c>
@@ -4216,7 +4116,7 @@
         <v xml:space="preserve">CD_TRANSACAO_DOCUMENTO, </v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="38.25">
+    <row r="25" spans="3:5">
       <c r="C25" s="8" t="s">
         <v>253</v>
       </c>
@@ -4225,7 +4125,7 @@
         <v xml:space="preserve">DT_VENCTO_PRORROGADO, </v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="51">
+    <row r="26" spans="3:5" ht="25.5">
       <c r="C26" s="8" t="s">
         <v>254</v>
       </c>
@@ -4234,7 +4134,7 @@
         <v xml:space="preserve">DT_VENCTO_ORIGINAL_PRORROGADO, </v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="38.25">
+    <row r="27" spans="3:5">
       <c r="C27" s="8" t="s">
         <v>255</v>
       </c>
@@ -4243,7 +4143,7 @@
         <v xml:space="preserve">DT_LIQUIDEZ_PREVISTA, </v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="38.25">
+    <row r="28" spans="3:5">
       <c r="C28" s="6" t="s">
         <v>256</v>
       </c>
